--- a/data/data_T.xlsx
+++ b/data/data_T.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -127,6 +127,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,20 +209,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,6 +246,12 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -263,6 +272,12 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -275,13 +290,19 @@
         <v>29</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,6 +324,12 @@
       <c r="F4" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -323,6 +350,12 @@
       <c r="F5" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -343,6 +376,12 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -363,6 +402,12 @@
       <c r="F7" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -383,6 +428,12 @@
       <c r="F8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -403,6 +454,12 @@
       <c r="F9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -422,6 +479,12 @@
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,6 +506,12 @@
       <c r="F11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -463,6 +532,12 @@
       <c r="F12" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -483,6 +558,12 @@
       <c r="F13" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -503,6 +584,12 @@
       <c r="F14" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -523,6 +610,12 @@
       <c r="F15" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -543,6 +636,12 @@
       <c r="F16" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -563,6 +662,12 @@
       <c r="F17" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -583,6 +688,12 @@
       <c r="F18" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -603,6 +714,12 @@
       <c r="F19" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -623,6 +740,12 @@
       <c r="F20" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -643,6 +766,12 @@
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -663,6 +792,12 @@
       <c r="F22" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -678,10 +813,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,10 +839,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,6 +870,12 @@
       <c r="F25" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -742,6 +895,12 @@
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
